--- a/evals/팀별평가_기말.xlsx
+++ b/evals/팀별평가_기말.xlsx
@@ -527,55 +527,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.9</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="C2" t="n">
-        <v>3.6</v>
+        <v>3.375</v>
       </c>
       <c r="D2" t="n">
-        <v>3.1</v>
+        <v>3.472222222222222</v>
       </c>
       <c r="E2" t="n">
+        <v>3.486111111111111</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.444444444444445</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.583333333333333</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.472222222222222</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.569444444444445</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.5</v>
       </c>
-      <c r="F2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>3.555555555555555</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.388888888888889</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.583333333333333</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.305555555555555</v>
+      </c>
+      <c r="O2" t="n">
         <v>3.5</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3.8</v>
-      </c>
       <c r="P2" t="n">
-        <v>3.3</v>
+        <v>3.361111111111111</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.4</v>
+        <v>3.305555555555555</v>
       </c>
       <c r="R2" t="n">
-        <v>3.2</v>
+        <v>3.444444444444445</v>
       </c>
     </row>
     <row r="3">
@@ -585,55 +585,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.6</v>
+        <v>3.513888888888889</v>
       </c>
       <c r="C3" t="n">
-        <v>3.5</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>3.1</v>
+        <v>3.347222222222222</v>
       </c>
       <c r="E3" t="n">
-        <v>3.2</v>
+        <v>3.277777777777778</v>
       </c>
       <c r="F3" t="n">
-        <v>3.9</v>
+        <v>3.472222222222222</v>
       </c>
       <c r="G3" t="n">
-        <v>3.7</v>
+        <v>3.569444444444445</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.527777777777778</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3.486111111111111</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.458333333333333</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.375</v>
       </c>
       <c r="L3" t="n">
-        <v>3.5</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="M3" t="n">
-        <v>3.9</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="N3" t="n">
-        <v>3.2</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="O3" t="n">
-        <v>3.7</v>
+        <v>3.513888888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>3.6</v>
+        <v>3.291666666666667</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.3</v>
+        <v>3.527777777777778</v>
       </c>
       <c r="R3" t="n">
-        <v>3.1</v>
+        <v>3.680555555555555</v>
       </c>
     </row>
     <row r="4">
@@ -643,55 +643,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.6</v>
+        <v>3.180555555555555</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>3.097222222222222</v>
       </c>
       <c r="D4" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>3.1</v>
+        <v>3.319444444444445</v>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>3.472222222222222</v>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3.527777777777778</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.263888888888889</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>3.222222222222222</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.263888888888889</v>
       </c>
       <c r="K4" t="n">
-        <v>3.2</v>
+        <v>3.277777777777778</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.277777777777778</v>
       </c>
       <c r="M4" t="n">
-        <v>3.5</v>
+        <v>3.263888888888889</v>
       </c>
       <c r="N4" t="n">
-        <v>2.7</v>
+        <v>3.375</v>
       </c>
       <c r="O4" t="n">
-        <v>3.6</v>
+        <v>3.277777777777778</v>
       </c>
       <c r="P4" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.2</v>
+        <v>3.375</v>
       </c>
       <c r="R4" t="n">
-        <v>3.2</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -701,55 +701,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.1</v>
+        <v>3.597222222222222</v>
       </c>
       <c r="C5" t="n">
-        <v>3.5</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>2.5</v>
+        <v>3.388888888888889</v>
       </c>
       <c r="E5" t="n">
-        <v>3.2</v>
+        <v>3.444444444444445</v>
       </c>
       <c r="F5" t="n">
-        <v>3.3</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>3.7</v>
+        <v>3.444444444444445</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.388888888888889</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>3.430555555555555</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.444444444444445</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4</v>
+        <v>3.361111111111111</v>
       </c>
       <c r="M5" t="n">
-        <v>3.6</v>
+        <v>3.541666666666667</v>
       </c>
       <c r="N5" t="n">
-        <v>2.9</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="O5" t="n">
-        <v>3.9</v>
+        <v>3.486111111111111</v>
       </c>
       <c r="P5" t="n">
-        <v>3.9</v>
+        <v>3.347222222222222</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.5</v>
+        <v>3.486111111111111</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>3.402777777777778</v>
       </c>
     </row>
     <row r="6">
@@ -759,55 +759,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.6</v>
+        <v>3.361111111111111</v>
       </c>
       <c r="C6" t="n">
-        <v>3.7</v>
+        <v>3.527777777777778</v>
       </c>
       <c r="D6" t="n">
-        <v>3.2</v>
+        <v>3.430555555555555</v>
       </c>
       <c r="E6" t="n">
-        <v>3.6</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>3.277777777777778</v>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>3.208333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.402777777777778</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>3.569444444444445</v>
       </c>
       <c r="L6" t="n">
-        <v>2.7</v>
+        <v>3.152777777777778</v>
       </c>
       <c r="M6" t="n">
-        <v>3.8</v>
+        <v>3.458333333333333</v>
       </c>
       <c r="N6" t="n">
-        <v>2.8</v>
+        <v>3.291666666666667</v>
       </c>
       <c r="O6" t="n">
-        <v>3.8</v>
+        <v>3.236111111111111</v>
       </c>
       <c r="P6" t="n">
-        <v>3.7</v>
+        <v>3.194444444444445</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.4</v>
+        <v>3.625</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -817,55 +817,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.8</v>
+        <v>17.26388888888889</v>
       </c>
       <c r="C7" t="n">
-        <v>17.3</v>
+        <v>16.75</v>
       </c>
       <c r="D7" t="n">
-        <v>15.5</v>
+        <v>17.63888888888889</v>
       </c>
       <c r="E7" t="n">
-        <v>16.6</v>
+        <v>16.94444444444444</v>
       </c>
       <c r="F7" t="n">
-        <v>17.8</v>
+        <v>17.08333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>18.1</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>17.5</v>
+        <v>17.06944444444444</v>
       </c>
       <c r="I7" t="n">
-        <v>16.4</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="J7" t="n">
-        <v>16.9</v>
+        <v>17.18055555555556</v>
       </c>
       <c r="K7" t="n">
-        <v>18.7</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="L7" t="n">
-        <v>16.1</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="M7" t="n">
-        <v>18.4</v>
+        <v>17.40277777777778</v>
       </c>
       <c r="N7" t="n">
-        <v>14.2</v>
+        <v>16.72222222222222</v>
       </c>
       <c r="O7" t="n">
-        <v>18.8</v>
+        <v>17.01388888888889</v>
       </c>
       <c r="P7" t="n">
-        <v>18.2</v>
+        <v>16.44444444444444</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.8</v>
+        <v>17.31944444444444</v>
       </c>
       <c r="R7" t="n">
-        <v>15.5</v>
+        <v>17.19444444444444</v>
       </c>
     </row>
   </sheetData>
